--- a/List of Bills .xlsx
+++ b/List of Bills .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M227586\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M227586\Documents\GitHub\CNC-Lathe-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Bill of materials </t>
   </si>
@@ -59,9 +59,6 @@
     <t>20 litre</t>
   </si>
   <si>
-    <t>holo Encoder</t>
-  </si>
-  <si>
     <t>Belt encoder</t>
   </si>
   <si>
@@ -75,6 +72,18 @@
   </si>
   <si>
     <t>Ball screw shaft - Z axis</t>
+  </si>
+  <si>
+    <t>hollow Shaft Encoder</t>
+  </si>
+  <si>
+    <t>sensors</t>
+  </si>
+  <si>
+    <t>60mm inner bore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tooth belt </t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +141,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H11"/>
+  <dimension ref="C1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +474,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -479,35 +489,41 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3">
+        <v>200</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>200</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -527,12 +543,14 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="3">
         <v>3030</v>
       </c>
@@ -540,16 +558,23 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="3">
         <v>100</v>
       </c>
       <c r="H11" s="2"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List of Bills .xlsx
+++ b/List of Bills .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M227586\Documents\GitHub\CNC-Lathe-Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M228854\Documents\GitHub\CNC-Lathe-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Bill of materials </t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t xml:space="preserve">tooth belt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit switches </t>
+  </si>
+  <si>
+    <t>ip65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$23.46 each </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slide door sensor </t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +154,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H13"/>
+  <dimension ref="C1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +589,31 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/List of Bills .xlsx
+++ b/List of Bills .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M228854\Documents\GitHub\CNC-Lathe-Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M220404\Documents\CNC-Lathe-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="C1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="3">
-        <v>3030</v>
+        <v>849</v>
       </c>
       <c r="H10" s="2"/>
     </row>

--- a/List of Bills .xlsx
+++ b/List of Bills .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Bill of materials </t>
   </si>
@@ -92,18 +92,22 @@
     <t>ip65</t>
   </si>
   <si>
-    <t xml:space="preserve">$23.46 each </t>
-  </si>
-  <si>
     <t xml:space="preserve">Slide door sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float level switch </t>
+  </si>
+  <si>
+    <t>limit switch ,roller lever</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,7 +158,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H15"/>
+  <dimension ref="C1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,19 +611,41 @@
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
+      <c r="G14" s="7">
+        <v>93.94</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>150</v>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>17.54</v>
       </c>
     </row>
   </sheetData>
